--- a/Documents/A0_Étude d'opportunité/Risques&Solutions.xlsx
+++ b/Documents/A0_Étude d'opportunité/Risques&Solutions.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\A0_Étude d'opportunité\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064BBCCB-2E5A-4E33-B57F-0771F6EE11B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="800" yWindow="240" windowWidth="18400" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <t xml:space="preserve">Nom Risques</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>Nom Risques</t>
   </si>
   <si>
     <t>Probabilité</t>
@@ -36,7 +43,7 @@
     <t>Absentésime</t>
   </si>
   <si>
-    <t xml:space="preserve">Se répartir le travail de la personne absente avec les autres membres du projet</t>
+    <t>Se répartir le travail de la personne absente avec les autres membres du projet</t>
   </si>
   <si>
     <t xml:space="preserve">Démission au cours du projet </t>
@@ -45,13 +52,13 @@
     <t xml:space="preserve">La personne qui démissionne doit terminer les tâches qu'elle doit accomplir jusqu'au prochain brainstorming </t>
   </si>
   <si>
-    <t xml:space="preserve">Manque de compétences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribuer la tâche à la personne ayant plus de compétences dans le domaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conflit au sein de l'équipe</t>
+    <t>Manque de compétences</t>
+  </si>
+  <si>
+    <t>Attribuer la tâche à la personne ayant plus de compétences dans le domaine</t>
+  </si>
+  <si>
+    <t>Conflit au sein de l'équipe</t>
   </si>
   <si>
     <t xml:space="preserve">Comprendre le conflit et provoquer la discussion avec tous les membres de l'équipe en valorisant les succès et compétences professionnelles de chacun </t>
@@ -60,13 +67,13 @@
     <t>Temporels</t>
   </si>
   <si>
-    <t xml:space="preserve">Mauvaise estimation des délais</t>
+    <t>Mauvaise estimation des délais</t>
   </si>
   <si>
     <t xml:space="preserve">Utiliser les méthodes agiles ou Scrum </t>
   </si>
   <si>
-    <t xml:space="preserve">Restriction sanitaire</t>
+    <t>Restriction sanitaire</t>
   </si>
   <si>
     <t xml:space="preserve">Utiliser les outils de visio conférence </t>
@@ -75,16 +82,16 @@
     <t xml:space="preserve">Retard des parties prenantes </t>
   </si>
   <si>
-    <t xml:space="preserve">Faire des rapports hebdomadaire</t>
+    <t>Faire des rapports hebdomadaire</t>
   </si>
   <si>
     <t>Techniques</t>
   </si>
   <si>
-    <t xml:space="preserve">Logiciel inadapté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trouver d'autres logiciels adaptés au projet 
+    <t>Logiciel inadapté</t>
+  </si>
+  <si>
+    <t>Trouver d'autres logiciels adaptés au projet 
 en se renseignant aux près de spécialiste 
 Rechercher sur internet des logiciels adaptés</t>
   </si>
@@ -97,16 +104,16 @@
 ou sur le cloud </t>
   </si>
   <si>
-    <t xml:space="preserve">Matériel obsolète</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vérifier que le matériel utilisé ne va pas devenir obsolète pour la durée du projet</t>
+    <t>Matériel obsolète</t>
+  </si>
+  <si>
+    <t>Vérifier que le matériel utilisé ne va pas devenir obsolète pour la durée du projet</t>
   </si>
   <si>
     <t>Juridiques</t>
   </si>
   <si>
-    <t xml:space="preserve">Lois à respecter</t>
+    <t>Lois à respecter</t>
   </si>
   <si>
     <t xml:space="preserve">S'assurer que le logiciel ne demande pas une 
@@ -134,7 +141,7 @@
 Privilégié les transports communs lors de nos séances de groupes </t>
   </si>
   <si>
-    <t xml:space="preserve">Peu probable</t>
+    <t>Peu probable</t>
   </si>
   <si>
     <t>Mineur</t>
@@ -159,72 +166,81 @@
   </si>
   <si>
     <t xml:space="preserve">Critique </t>
+  </si>
+  <si>
+    <t>Non-respect du contrat</t>
+  </si>
+  <si>
+    <t>Mauvaise communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauvaise répartition des tâches </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
-      <b/>
-      <color rgb="FFFFC000"/>
-      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="2"/>
       <name val="Calibri"/>
-      <b/>
-      <color indexed="2"/>
-      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
-      <b/>
-      <color rgb="FFFFC000"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="2"/>
       <name val="Calibri"/>
-      <b/>
-      <color indexed="2"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -243,8 +259,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.049989318521683403"/>
-        <bgColor theme="0" tint="-0.049989318521683403"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
       </patternFill>
     </fill>
   </fills>
@@ -422,111 +438,114 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="6" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="7" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="8" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,295 +556,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1028,385 +767,415 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="40">
-      <selection activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="40" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="23.08984375"/>
-    <col customWidth="1" min="2" max="2" width="45"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="17.1796875"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="14.6328125"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="13.7265625"/>
-    <col customWidth="1" min="6" max="6" width="53.81640625"/>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.5">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="33.5" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
         <v>2</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="46.5" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
         <v>3</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>3</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="37" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="49.5">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:6" s="37" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" s="37" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="18">
-        <v>1</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="19">
-        <v>1</v>
-      </c>
-      <c r="F6" s="20" t="s">
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="16.5">
-      <c r="A7" s="21" t="s">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" ht="26.5" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="25" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25"/>
+      <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C10" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D10" s="12">
         <v>3</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E10" s="10">
         <v>2</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="26.5" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="25" t="s">
+    <row r="11" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C11" s="12">
         <v>3</v>
       </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1</v>
-      </c>
-      <c r="F9" s="27" t="s">
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="26.5" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29" t="s">
+    <row r="12" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C12" s="29">
         <v>2</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D12" s="29">
         <v>2</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E12" s="30">
         <v>2</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="16.5">
-      <c r="A11" s="21" t="s">
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" ht="50.5" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="25" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" spans="1:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25"/>
+      <c r="B14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
         <v>2</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E14" s="10">
         <v>2</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="50.5" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="25" t="s">
+    <row r="15" spans="1:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25"/>
+      <c r="B15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C15" s="9">
         <v>2</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D15" s="12">
         <v>3</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E15" s="13">
         <v>3</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="38" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29" t="s">
+    <row r="16" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="18">
-        <v>1</v>
-      </c>
-      <c r="D14" s="30">
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="29">
         <v>2</v>
       </c>
-      <c r="E14" s="19">
-        <v>1</v>
-      </c>
-      <c r="F14" s="32" t="s">
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="17.5" customHeight="1">
-      <c r="A15" s="21" t="s">
+    <row r="17" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" ht="86.5" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="25"/>
+      <c r="B18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
         <v>3</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E18" s="10">
         <v>2</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F18" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="32" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29" t="s">
+    <row r="19" spans="1:6" s="37" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="25"/>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="18">
-        <v>1</v>
-      </c>
-      <c r="D17" s="33">
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+      <c r="D20" s="32">
         <v>3</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E20" s="33">
         <v>3</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" ht="16.5">
-      <c r="A18" s="21" t="s">
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" ht="74.5" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="35" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:6" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="27"/>
+      <c r="B22" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="36">
-        <v>1</v>
-      </c>
-      <c r="D19" s="36">
-        <v>1</v>
-      </c>
-      <c r="E19" s="37">
-        <v>1</v>
-      </c>
-      <c r="F19" s="35" t="s">
+      <c r="C22" s="35">
+        <v>1</v>
+      </c>
+      <c r="D22" s="35">
+        <v>1</v>
+      </c>
+      <c r="E22" s="36">
+        <v>1</v>
+      </c>
+      <c r="F22" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D24" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E24" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="38"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="40" t="s">
+      <c r="F24" s="37"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D25" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E25" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="41" t="s">
+      <c r="F25" s="37"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D26" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E26" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="38"/>
+      <c r="F26" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="0" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="0"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Documents/A0_Étude d'opportunité/Risques&Solutions.xlsx
+++ b/Documents/A0_Étude d'opportunité/Risques&Solutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\A0_Étude d'opportunité\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064BBCCB-2E5A-4E33-B57F-0771F6EE11B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEACC9B3-C7BF-464A-8AA2-0E4700954C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="240" windowWidth="18400" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Nom Risques</t>
   </si>
@@ -168,20 +168,29 @@
     <t xml:space="preserve">Critique </t>
   </si>
   <si>
-    <t>Non-respect du contrat</t>
-  </si>
-  <si>
     <t>Mauvaise communication</t>
   </si>
   <si>
     <t xml:space="preserve">Mauvaise répartition des tâches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas d'accès aux technologies requises </t>
+  </si>
+  <si>
+    <t>Se référer au fichier Excel "Sprint"</t>
+  </si>
+  <si>
+    <t>Prévoir des séances chaque semaine et communiquer lorsque une tâche va être faite et effectuée</t>
+  </si>
+  <si>
+    <t>Prendre contact avec l'entreprise Waview pour faciliter les accès aux différentes technologies imposés</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +252,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -440,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,6 +561,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -874,22 +896,38 @@
     <row r="6" spans="1:6" s="37" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:6" s="37" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
@@ -1019,61 +1057,69 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28" t="s">
+    <row r="16" spans="1:6" s="37" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25"/>
+      <c r="B16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="17">
-        <v>1</v>
-      </c>
-      <c r="D16" s="29">
-        <v>2</v>
-      </c>
-      <c r="E16" s="18">
-        <v>1</v>
-      </c>
-      <c r="F16" s="31" t="s">
+      <c r="C17" s="17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="29">
+        <v>2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
+    <row r="18" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12">
-        <v>3</v>
-      </c>
-      <c r="E18" s="10">
-        <v>2</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="37" customFormat="1" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:6" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25"/>
       <c r="B19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="26"/>
+        <v>29</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12">
+        <v>3</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27"/>
@@ -1176,6 +1222,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>